--- a/medicine/Mort/L'Expérience_interdite___Flatliners/L'Expérience_interdite___Flatliners.xlsx
+++ b/medicine/Mort/L'Expérience_interdite___Flatliners/L'Expérience_interdite___Flatliners.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Exp%C3%A9rience_interdite_:_Flatliners</t>
+          <t>L'Expérience_interdite_:_Flatliners</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Expérience interdite : Flatliners ou Lignes interdites au Québec (Flatliners) est un film de science-fiction horrifique américano-canadien réalisé par Niels Arden Oplev, sorti en 2017. Il s'agit d'un remake-suite de L'Expérience interdite de Joel Schumacher sorti 1990 qui traite d’expérience de mort imminente.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Exp%C3%A9rience_interdite_:_Flatliners</t>
+          <t>L'Expérience_interdite_:_Flatliners</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La mort, un point que tout médecin rêve d'élucider afin de mieux préparer les personnes à ce moment. Malgré les dangers que cela implique, un groupe d'étudiants en médecine va tenter d'élucider ce mystère en se provoquant volontairement des courts arrêts cardiaques. Ces derniers vont alors les plonger dans l’expérience de mort imminente, et la répétition de ce processus va alors les obliger à faire face à des choses auxquelles ils ne s'attendaient pas en se lançant dans cette folle expérience. Ombres, passé sombre ou bien encore phénomènes paranormaux seront au rendez-vous.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Exp%C3%A9rience_interdite_:_Flatliners</t>
+          <t>L'Expérience_interdite_:_Flatliners</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Flatliners
@@ -550,7 +566,7 @@
 Titre québécois : Lignes interdites
 Réalisation : Niels Arden Oplev
 Scénario : Ben Ripley, d'après les personnages créés par Stephen Susco
-Collaboration au scénario : Peter Filardi[1]
+Collaboration au scénario : Peter Filardi
 Musique : Nathan Barr
 Direction artistique : Michaela Cheyne
 Décors : Niels Sejer et Mary Kirkland
@@ -561,23 +577,23 @@
 Production : Michael Douglas, Peter Safran  et Laurence Mark
 Producteurs délégués : Michael Bederman, David Blackman, Robert Mitas, Brian Oliver et Hassan Taher
 Coproducteurs délégués : Justin Ardalan-Raikes et Simon Fawcett
-Sociétés de production[2] : Columbia Pictures, Furthur Films, Cross Creek Pictures, Laurence Mark et The Safran Company
-Sociétés de distribution[2] :
+Sociétés de production : Columbia Pictures, Furthur Films, Cross Creek Pictures, Laurence Mark et The Safran Company
+Sociétés de distribution :
 États-Unis : Columbia Pictures, Sony Pictures Releasing
 France : Sony Pictures Releasing France
 Belgique : Sony Pictures Releasing
-Budget : 19 millions de dollars[3]
+Budget : 19 millions de dollars
 Pays d'origine :  États-Unis,  Canada
 Langue originale : anglais
-Format[4] : couleur (DeLuxe) / (Technicolor) - 2,39:1 (Cinémascope) - son Auro 11.1 (Auro-3D) | Dolby Atmos | DTS
+Format : couleur (DeLuxe) / (Technicolor) - 2,39:1 (Cinémascope) - son Auro 11.1 (Auro-3D) | Dolby Atmos | DTS
 Genres : science-fiction, thriller, drame, épouvante-horreur
 Durée : 109 minutes
-Dates de sortie[5] :
+Dates de sortie :
 États-Unis et Canada : 29 septembre 2017
 France : 22 novembre 2017
-Classification[6] :
+Classification :
  États-Unis : PG-13 - Parents Strongly Cautioned  (Certaines scènes peuvent heurter les enfants de moins de 13 ans - Accord parental recommandé, film déconseillé aux moins de 13 ans)
- France : Interdit aux moins de 12 ans (visa d'exploitation no 147247 délivré le 30 octobre 2017)[7],[Note 1]</t>
+ France : Interdit aux moins de 12 ans (visa d'exploitation no 147247 délivré le 30 octobre 2017),[Note 1]</t>
         </is>
       </c>
     </row>
@@ -587,7 +603,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Exp%C3%A9rience_interdite_:_Flatliners</t>
+          <t>L'Expérience_interdite_:_Flatliners</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -605,7 +621,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Elliot Page (VF : Jessica Monceau ; VQ : Annie Girard) : Courtney Holmes (crédité Ellen Page)
 Diego Luna (VF : Benjamin Pascal ; VQ : Renaud Paradis) : Ray
@@ -621,8 +639,8 @@
 Charlotte McKinney : la jeune fille en vélo
 Natasha Bromfield (VF : Virginie Emane) : une infirmière
 Jimi Shlag (VF : Jean-Marc Charrier) : le patient robuste
- Source et légende : version française (VF) sur RS Doublage[8]
- Source et légende : version québécoise (VQ) sur Doublage.qc.ca[9]</t>
+ Source et légende : version française (VF) sur RS Doublage
+ Source et légende : version québécoise (VQ) sur Doublage.qc.ca</t>
         </is>
       </c>
     </row>
@@ -632,7 +650,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%27Exp%C3%A9rience_interdite_:_Flatliners</t>
+          <t>L'Expérience_interdite_:_Flatliners</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -652,13 +670,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse et développement
-En octobre 2015, il est annoncé qu'un remake de L'Expérience interdite (1990) de Joel Schumacher est envisagé[10]. Le Danois Niels Arden Oplev est rapidement annoncé comme réalisateur[11]. Tout comme le film original, celui-ci est produit par l'acteur Michael Douglas. Courant 2016, Kiefer Sutherland, acteur principal du premier film, révèle que le film n'est finalement pas un remake mais une suite[12],[13].
-Attribution des rôles
-Dès octobre 2015, Elliot Page est attaché au projet[14]. Il est rejoint par Diego Luna en février 2016[15], et par Nina Dobrev en avril[16]. En mai 2016, Kiersey Clemons et James Norton rejoignent à leur tour la distribution[17],[18].
-En juillet 2016, Kiefer Sutherland, tête d'affiche du premier film, est confirmé pour reprendre son rôle[19]. Charlotte McKinney décroche un rôle le même mois[20].
-Tournage
-Le tournage a lieu en Ontario (notamment à Toronto et Oakville)[21].
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En octobre 2015, il est annoncé qu'un remake de L'Expérience interdite (1990) de Joel Schumacher est envisagé. Le Danois Niels Arden Oplev est rapidement annoncé comme réalisateur. Tout comme le film original, celui-ci est produit par l'acteur Michael Douglas. Courant 2016, Kiefer Sutherland, acteur principal du premier film, révèle que le film n'est finalement pas un remake mais une suite,.
 </t>
         </is>
       </c>
@@ -669,7 +687,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>L%27Exp%C3%A9rience_interdite_:_Flatliners</t>
+          <t>L'Expérience_interdite_:_Flatliners</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -684,13 +702,20 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Accueil</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Critique
-Box-office</t>
+          <t>Attribution des rôles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès octobre 2015, Elliot Page est attaché au projet. Il est rejoint par Diego Luna en février 2016, et par Nina Dobrev en avril. En mai 2016, Kiersey Clemons et James Norton rejoignent à leur tour la distribution,.
+En juillet 2016, Kiefer Sutherland, tête d'affiche du premier film, est confirmé pour reprendre son rôle. Charlotte McKinney décroche un rôle le même mois.
+</t>
         </is>
       </c>
     </row>
@@ -700,7 +725,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>L%27Exp%C3%A9rience_interdite_:_Flatliners</t>
+          <t>L'Expérience_interdite_:_Flatliners</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -715,16 +740,124 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu en Ontario (notamment à Toronto et Oakville).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>L'Expérience_interdite_:_Flatliners</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Exp%C3%A9rience_interdite_:_Flatliners</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>En 2018, L'Expérience interdite : Flatliners a été sélectionné 5 fois dans diverses catégories et a remporté 1 récompense[24].
-Récompenses
-Golden Trailer Awards 2018 : Golden Trailer de la meilleure affiche d'un thriller pour Sony et Concept Arts Studios.
-Nominations
-Golden Trailer Awards 2018 :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2018, L'Expérience interdite : Flatliners a été sélectionné 5 fois dans diverses catégories et a remporté 1 récompense.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>L'Expérience_interdite_:_Flatliners</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Exp%C3%A9rience_interdite_:_Flatliners</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Golden Trailer Awards 2018 : Golden Trailer de la meilleure affiche d'un thriller pour Sony et Concept Arts Studios.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>L'Expérience_interdite_:_Flatliners</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Exp%C3%A9rience_interdite_:_Flatliners</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Golden Trailer Awards 2018 :
 Toison d'Or du Spot TV pour Sony Pictures Home et Buddha Jones
 Meilleur trailer pour un long métrage pour Sony Pictures Home et BOND
 Young Artist Awards 2018 : Meilleur second rôle féminin dans un film pour Madison Brydges
@@ -732,33 +865,35 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>L%27Exp%C3%A9rience_interdite_:_Flatliners</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%27Exp%C3%A9rience_interdite_:_Flatliners</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>L'Expérience_interdite_:_Flatliners</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Exp%C3%A9rience_interdite_:_Flatliners</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Suite ou remake ?</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une scène coupée au montage révèle que le personnage du Dr Barry Wolfson incarné par Kiefer Sutherland s'appelle en réalité Nelson Wright (son personnage du premier film)[25],[26].
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une scène coupée au montage révèle que le personnage du Dr Barry Wolfson incarné par Kiefer Sutherland s'appelle en réalité Nelson Wright (son personnage du premier film),.
 </t>
         </is>
       </c>
